--- a/Assets/仕様書.xlsx
+++ b/Assets/仕様書.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alfam\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alfam\Documents\Sudoku_Git\Assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D185CB09-E329-4C2B-B906-C39B9DB8D3E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{330FC9CF-3D88-4A1B-A1CE-D420D74C88FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="15000" activeTab="3" xr2:uid="{4521FB58-C6D8-458F-B2B5-CA63D47F7699}"/>
   </bookViews>
@@ -123,16 +123,16 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>取得</t>
+    <t>参照</t>
     <rPh sb="0" eb="2">
-      <t>シュトク</t>
+      <t>サンショウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>参照</t>
+    <t>所有</t>
     <rPh sb="0" eb="2">
-      <t>サンショウ</t>
+      <t>ショユウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1082,6 +1082,2593 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>514125</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>53250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86470DB4-C232-3224-1281-D1218D2CBA9A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6943725" y="1476375"/>
+          <a:ext cx="1800000" cy="720000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>MainGame</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>523650</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>53250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="正方形/長方形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DA46ECF-9E4C-3EBB-B08B-497EB057E1F2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4210050" y="1476375"/>
+          <a:ext cx="1800000" cy="720000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>MainGameSetting</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>533175</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>62775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="正方形/長方形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D64321D-384E-5200-E783-3206DCCFB29B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1476375" y="1485900"/>
+          <a:ext cx="1800000" cy="720000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>ISetting</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>533175</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>169500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>179025</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="直線矢印コネクタ 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D82E554-FAF4-8AFD-6EFA-C4F0917909EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="1"/>
+          <a:endCxn id="7" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3276375" y="1836375"/>
+          <a:ext cx="933675" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="92D050"/>
+          </a:solidFill>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="oval"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>523650</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>169500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>169500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="直線矢印コネクタ 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A34ECACB-F224-61D1-E346-19A661EAC79F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="1"/>
+          <a:endCxn id="6" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6010050" y="1836375"/>
+          <a:ext cx="933675" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>476025</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>34200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="正方形/長方形 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C89E4423-9EC0-E9E5-62E5-2382F7A78A4D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6219825" y="3124200"/>
+          <a:ext cx="1800000" cy="720000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>IMainGameLogic</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>261825</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>53250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>299925</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="直線矢印コネクタ 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E211F087-5FE9-8FEE-C945-15989AB1BB4D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="17" idx="0"/>
+          <a:endCxn id="2" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7119825" y="2196375"/>
+          <a:ext cx="723900" cy="927825"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="diamond"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>552225</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>34200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="正方形/長方形 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDA9B6BC-6318-EFC2-1C55-64CB0C984C89}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3552825" y="3124200"/>
+          <a:ext cx="1800000" cy="720000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>MainGameLogic</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>280875</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>34200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>338025</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="直線矢印コネクタ 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{804F17AE-C16F-045C-7AC9-C5B926DDF2E8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="28" idx="0"/>
+          <a:endCxn id="21" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4395675" y="3844200"/>
+          <a:ext cx="57150" cy="489675"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="diamond"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>552225</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>150450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>150450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="直線矢印コネクタ 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D445B98C-57E6-C596-FC6B-71F9BA9D6638}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="21" idx="3"/>
+          <a:endCxn id="17" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5352825" y="3484200"/>
+          <a:ext cx="867000" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="92D050"/>
+          </a:solidFill>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="oval"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>495075</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>53250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="正方形/長方形 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{884C8677-1F02-5EAB-EAF9-0D7D799F4BD5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3495675" y="4333875"/>
+          <a:ext cx="1800000" cy="720000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>MainGameInput</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>599850</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>43725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="正方形/長方形 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E00A5E46-3F48-8A83-7682-CE1EDFDBE33D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="857250" y="4324350"/>
+          <a:ext cx="1800000" cy="720000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>GenerateGrid</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>385650</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>34200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>338025</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="直線矢印コネクタ 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{922AE6F5-CC0B-C843-8B4E-56539BBDE91F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="30" idx="0"/>
+          <a:endCxn id="21" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1757250" y="3844200"/>
+          <a:ext cx="2695575" cy="480150"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="diamond"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>504600</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>34200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="正方形/長方形 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9B59A83-4F43-7847-5A5D-135096BE5F29}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8991600" y="3124200"/>
+          <a:ext cx="1800000" cy="720000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>IGridData</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>476025</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>150450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>150450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="35" name="直線矢印コネクタ 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CF5CEAA-A346-0EB2-6AEE-9ADE20E8ADB9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="17" idx="3"/>
+          <a:endCxn id="34" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8019825" y="3484200"/>
+          <a:ext cx="971775" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="92D050"/>
+          </a:solidFill>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="oval"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>523650</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>62775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="正方形/長方形 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C4AD449-3A06-C33E-E10C-75000159E025}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6267450" y="4343400"/>
+          <a:ext cx="1800000" cy="720000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>IMainGameInput</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>495075</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>169500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>179025</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="39" name="直線矢印コネクタ 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CE1DA1D-CD33-E632-E61E-B8EFA8DB9806}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="28" idx="3"/>
+          <a:endCxn id="38" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5295675" y="4693875"/>
+          <a:ext cx="971775" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="92D050"/>
+          </a:solidFill>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="oval"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>338025</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>53250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>309450</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="42" name="直線矢印コネクタ 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0782B80-99F9-748F-2E4D-8ECEB13D8562}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="21" idx="0"/>
+          <a:endCxn id="6" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4452825" y="2196375"/>
+          <a:ext cx="657225" cy="927825"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>338025</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>34200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>179025</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="45" name="直線矢印コネクタ 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BBA03A9-363B-C9FA-A8BF-E7CD0024D558}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="21" idx="2"/>
+          <a:endCxn id="38" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4452825" y="3844200"/>
+          <a:ext cx="1814625" cy="859200"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>456975</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>43725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="正方形/長方形 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50B7D546-BF4A-A659-8EE6-DD6B4E2B06F1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6886575" y="5991225"/>
+          <a:ext cx="1800000" cy="720000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>ICellButton</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>309450</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>62775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>242775</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="51" name="直線矢印コネクタ 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97515875-0FAA-9E68-6F1F-CFB09DCEA0B7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="38" idx="2"/>
+          <a:endCxn id="50" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7167450" y="5063400"/>
+          <a:ext cx="619125" cy="927825"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>476025</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>53250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="正方形/長方形 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2F545E5-B989-38DB-B545-B97D7F370271}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11706225" y="6000750"/>
+          <a:ext cx="1800000" cy="720000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>CellButton</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>456975</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>159975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>169500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="55" name="直線矢印コネクタ 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66460CAE-B6F9-FCDA-58E6-372B5FCDFCEA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="54" idx="1"/>
+          <a:endCxn id="50" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="8686575" y="6351225"/>
+          <a:ext cx="3019650" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="92D050"/>
+          </a:solidFill>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="oval"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>523650</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>179025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>169500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="59" name="直線矢印コネクタ 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A25F131-677D-AEF5-B093-F9031BC1EA57}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="38" idx="3"/>
+          <a:endCxn id="54" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8067450" y="4703400"/>
+          <a:ext cx="3638775" cy="1657350"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="diamond"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>476025</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>43725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="62" name="正方形/長方形 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D023733A-17AB-AF2F-4496-1953C41514F4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11706225" y="4086225"/>
+          <a:ext cx="1800000" cy="720000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Board</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>523650</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>159975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>179025</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="67" name="直線矢印コネクタ 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7C96619-DDE9-FEA3-3BF4-3ECF6EC46272}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="38" idx="3"/>
+          <a:endCxn id="62" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8067450" y="4446225"/>
+          <a:ext cx="3638775" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="diamond"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>261825</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>15150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>233250</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="70" name="直線矢印コネクタ 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23EC47FE-59C1-821F-A8FA-0B9F2B274892}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="62" idx="0"/>
+          <a:endCxn id="79" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="12606225" y="3825150"/>
+          <a:ext cx="1343025" cy="261075"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="diamond"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>233250</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>15150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>252300</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="71" name="直線矢印コネクタ 70">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA0121E2-D715-F2E1-068F-13CD1289AC64}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="82" idx="0"/>
+          <a:endCxn id="79" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="13949250" y="3825150"/>
+          <a:ext cx="19050" cy="1204050"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="diamond"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>261825</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>43725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>261825</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="72" name="直線矢印コネクタ 71">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9C33D90-9517-BBBB-8F39-7E8D63C3DE56}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="54" idx="0"/>
+          <a:endCxn id="62" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="12606225" y="4806225"/>
+          <a:ext cx="0" cy="1194525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="diamond"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>447450</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>15150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="79" name="正方形/長方形 78">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0832632-7674-C8B2-0CB4-FC9C168CFB3A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13049250" y="3105150"/>
+          <a:ext cx="1800000" cy="720000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>MainGameUI</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>466500</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>34200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="82" name="正方形/長方形 81">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32F627ED-1ACF-94FC-B012-C0FF5F9C8793}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13068300" y="5029200"/>
+          <a:ext cx="1800000" cy="720000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>InputNumberButton</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>299925</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>53250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>233250</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="87" name="直線矢印コネクタ 86">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FDC4F9E-D5E1-D32A-E833-BB6606BBC75E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="79" idx="0"/>
+          <a:endCxn id="2" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="7843725" y="2196375"/>
+          <a:ext cx="6105525" cy="908775"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="diamond"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>523650</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>179025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>150450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="93" name="直線矢印コネクタ 92">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCBE2B92-4695-9911-255C-4CC8CCB79E94}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="38" idx="3"/>
+          <a:endCxn id="82" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8067450" y="4703400"/>
+          <a:ext cx="5000850" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="diamond"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>309450</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>43725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>261825</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>62775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="98" name="直線矢印コネクタ 97">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3840B876-CBCE-309C-65DB-383986EBBE5A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="62" idx="2"/>
+          <a:endCxn id="38" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7167450" y="4806225"/>
+          <a:ext cx="5438775" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>309450</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>62775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>252300</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>34200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="105" name="直線矢印コネクタ 104">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23249138-9E83-EE81-A7BD-4ED6FCA0C7E3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="82" idx="2"/>
+          <a:endCxn id="38" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="7167450" y="5063400"/>
+          <a:ext cx="6800850" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>309450</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>62775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>261825</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>53250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="111" name="直線矢印コネクタ 110">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E9DD40D-F7F7-89CA-3E62-07AC37EAB0F4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="54" idx="2"/>
+          <a:endCxn id="38" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="7167450" y="5063400"/>
+          <a:ext cx="5438775" cy="1657350"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>290400</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>34200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>261825</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="114" name="直線矢印コネクタ 113">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F21F25D6-F544-B240-0E3B-47C171F4D632}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="62" idx="0"/>
+          <a:endCxn id="34" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="9891600" y="3844200"/>
+          <a:ext cx="2714625" cy="242025"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>261825</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>34200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>309450</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="117" name="直線矢印コネクタ 116">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90E0C06E-45DC-D83D-49E9-18A9DD282C32}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="17" idx="2"/>
+          <a:endCxn id="38" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7119825" y="3844200"/>
+          <a:ext cx="47625" cy="499200"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="135" name="正方形/長方形 134">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD342C13-C705-90DD-5288-8063B480794F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="561975" y="2524125"/>
+          <a:ext cx="5276850" cy="3962400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="50800">
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>232683</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>138793</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>28576</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>176892</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="136" name="正方形/長方形 135">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E79842D-F77D-8D09-EA8F-5DDA54B47A30}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11118397" y="2833007"/>
+          <a:ext cx="5238750" cy="4446814"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="50800">
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>272143</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>54428</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="721416" cy="521425"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="137" name="テキスト ボックス 136">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4886588A-C30A-9468-0116-3D8B36D844FB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15240000" y="2993571"/>
+          <a:ext cx="721416" cy="521425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>UI</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>側</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>220436</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>29935</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1467068" cy="521425"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="138" name="テキスト ボックス 137">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61498C64-7849-836D-4EE8-CD00E4FFA07F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="900793" y="2724149"/>
+          <a:ext cx="1467068" cy="521425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>ロジック側</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1495,8 +4082,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57DD9B51-692E-4039-98B6-6C0D19A95D03}">
   <dimension ref="B2:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1508,12 +4095,12 @@
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/仕様書.xlsx
+++ b/Assets/仕様書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alfam\Documents\Sudoku_Git\Assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{330FC9CF-3D88-4A1B-A1CE-D420D74C88FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{185886F0-AACE-41E2-BE9F-0EC8F9C06250}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="15000" activeTab="3" xr2:uid="{4521FB58-C6D8-458F-B2B5-CA63D47F7699}"/>
   </bookViews>

--- a/Assets/仕様書.xlsx
+++ b/Assets/仕様書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alfam\Documents\Sudoku_Git\Assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{185886F0-AACE-41E2-BE9F-0EC8F9C06250}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3FE3C1A-D7B7-4AF0-8FA8-676AF0E05470}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="15000" activeTab="3" xr2:uid="{4521FB58-C6D8-458F-B2B5-CA63D47F7699}"/>
   </bookViews>
@@ -912,13 +912,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>200024</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>594224</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
@@ -969,13 +969,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>603750</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -1026,13 +1026,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>537075</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
@@ -1084,13 +1084,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>514125</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>53250</xdr:rowOff>
@@ -1146,13 +1146,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>523650</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>53250</xdr:rowOff>
@@ -1208,13 +1208,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>533175</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>62775</xdr:rowOff>
@@ -1270,13 +1270,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>533175</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>169500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>179025</xdr:rowOff>
@@ -1330,13 +1330,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>523650</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>169500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>169500</xdr:rowOff>
@@ -1391,16 +1391,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>61233</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>476025</xdr:colOff>
+      <xdr:rowOff>42182</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>489632</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>34200</xdr:rowOff>
+      <xdr:rowOff>47807</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1415,8 +1415,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6219825" y="3124200"/>
-          <a:ext cx="1800000" cy="720000"/>
+          <a:off x="6864804" y="3226253"/>
+          <a:ext cx="1789114" cy="740411"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1453,16 +1453,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>261825</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>275432</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>53250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>299925</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>42182</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1480,8 +1480,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="7119825" y="2196375"/>
-          <a:ext cx="723900" cy="927825"/>
+          <a:off x="7759361" y="2257607"/>
+          <a:ext cx="2065564" cy="968646"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1513,14 +1513,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>55788</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>552225</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>484188</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>34200</xdr:rowOff>
     </xdr:to>
@@ -1537,8 +1537,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3552825" y="3124200"/>
-          <a:ext cx="1800000" cy="720000"/>
+          <a:off x="4137931" y="3212646"/>
+          <a:ext cx="1789114" cy="740411"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1575,16 +1575,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>280875</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>269988</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>34200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>338025</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>295843</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>43543</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1596,14 +1596,14 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="28" idx="0"/>
+          <a:stCxn id="38" idx="0"/>
           <a:endCxn id="21" idx="2"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="4395675" y="3844200"/>
-          <a:ext cx="57150" cy="489675"/>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="5032488" y="3953057"/>
+          <a:ext cx="4107998" cy="499200"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1635,16 +1635,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>552225</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>484188</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>150450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
+      <xdr:rowOff>153852</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>61233</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>150450</xdr:rowOff>
+      <xdr:rowOff>167459</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1662,8 +1662,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5352825" y="3484200"/>
-          <a:ext cx="867000" cy="0"/>
+          <a:off x="5927045" y="3582852"/>
+          <a:ext cx="937759" cy="13607"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1696,15 +1696,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
+      <xdr:colOff>175532</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>34018</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>495075</xdr:colOff>
+      <xdr:colOff>603932</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>53250</xdr:rowOff>
+      <xdr:rowOff>39643</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1719,8 +1719,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3495675" y="4333875"/>
-          <a:ext cx="1800000" cy="720000"/>
+          <a:off x="3577318" y="4442732"/>
+          <a:ext cx="1789114" cy="740411"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1757,16 +1757,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>117022</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>599850</xdr:colOff>
+      <xdr:rowOff>24493</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>545421</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>43725</xdr:rowOff>
+      <xdr:rowOff>30118</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1781,8 +1781,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="857250" y="4324350"/>
-          <a:ext cx="1800000" cy="720000"/>
+          <a:off x="1477736" y="4433207"/>
+          <a:ext cx="1789114" cy="740411"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1819,16 +1819,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>385650</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>331222</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>34200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>338025</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>269988</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>24493</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1846,8 +1846,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="1757250" y="3844200"/>
-          <a:ext cx="2695575" cy="480150"/>
+          <a:off x="2372293" y="3953057"/>
+          <a:ext cx="2660195" cy="480150"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1879,13 +1879,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>504600</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>34200</xdr:rowOff>
@@ -1941,16 +1941,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>476025</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>489632</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>150450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:rowOff>153852</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>150450</xdr:rowOff>
+      <xdr:rowOff>167459</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1967,9 +1967,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8019825" y="3484200"/>
-          <a:ext cx="971775" cy="0"/>
+        <a:xfrm flipV="1">
+          <a:off x="8653918" y="3582852"/>
+          <a:ext cx="2307996" cy="13607"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2001,16 +2001,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>81643</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>523650</xdr:colOff>
+      <xdr:rowOff>43543</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>510043</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>62775</xdr:rowOff>
+      <xdr:rowOff>49168</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2025,8 +2025,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6267450" y="4343400"/>
-          <a:ext cx="1800000" cy="720000"/>
+          <a:off x="8245929" y="4452257"/>
+          <a:ext cx="1789114" cy="740411"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2064,15 +2064,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>495075</xdr:colOff>
+      <xdr:colOff>603932</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>169500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
+      <xdr:rowOff>159295</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>81643</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>179025</xdr:rowOff>
+      <xdr:rowOff>168820</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2090,8 +2090,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5295675" y="4693875"/>
-          <a:ext cx="971775" cy="9525"/>
+          <a:off x="5366432" y="4812938"/>
+          <a:ext cx="2879497" cy="9525"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2123,14 +2123,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>338025</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>269988</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>53250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>309450</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>309451</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
@@ -2150,8 +2150,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="4452825" y="2196375"/>
-          <a:ext cx="657225" cy="927825"/>
+          <a:off x="5032488" y="2257607"/>
+          <a:ext cx="2080534" cy="955039"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2184,16 +2184,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>338025</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>269988</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>34200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>81643</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>179025</xdr:rowOff>
+      <xdr:rowOff>168820</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2211,8 +2211,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4452825" y="3844200"/>
-          <a:ext cx="1814625" cy="859200"/>
+          <a:off x="5032488" y="3953057"/>
+          <a:ext cx="3213441" cy="869406"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2245,16 +2245,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>456975</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>43725</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>55789</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>92529</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>484189</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>98154</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2269,8 +2269,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6886575" y="5991225"/>
-          <a:ext cx="1800000" cy="720000"/>
+          <a:off x="8900432" y="5725886"/>
+          <a:ext cx="1789114" cy="740411"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2307,16 +2307,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>309450</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>295843</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>62775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>242775</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>49168</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>269989</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>92529</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2334,8 +2334,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7167450" y="5063400"/>
-          <a:ext cx="619125" cy="927825"/>
+          <a:off x="9140486" y="5192668"/>
+          <a:ext cx="654503" cy="533218"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2368,16 +2368,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>476025</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>53250</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>61232</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>74840</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>489632</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>80465</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2392,8 +2392,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11706225" y="6000750"/>
-          <a:ext cx="1800000" cy="720000"/>
+          <a:off x="13668375" y="5708197"/>
+          <a:ext cx="1789114" cy="740411"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2430,16 +2430,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>456975</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>159975</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>169500</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>484189</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>200117</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>61232</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>217806</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2456,9 +2456,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="8686575" y="6351225"/>
-          <a:ext cx="3019650" cy="9525"/>
+        <a:xfrm flipH="1">
+          <a:off x="10689546" y="6078403"/>
+          <a:ext cx="2978829" cy="17689"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2490,16 +2490,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>523650</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>510043</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>179025</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>169500</xdr:rowOff>
+      <xdr:rowOff>168820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>61232</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>200117</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2517,8 +2517,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8067450" y="4703400"/>
-          <a:ext cx="3638775" cy="1657350"/>
+          <a:off x="10035043" y="4822463"/>
+          <a:ext cx="3633332" cy="1255940"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2550,16 +2550,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>20409</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>476025</xdr:colOff>
+      <xdr:rowOff>24494</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>448809</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>43725</xdr:rowOff>
+      <xdr:rowOff>30119</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2574,8 +2574,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11706225" y="4086225"/>
-          <a:ext cx="1800000" cy="720000"/>
+          <a:off x="11586480" y="4188280"/>
+          <a:ext cx="1789115" cy="740410"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2612,16 +2612,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>523650</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>510043</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>159975</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
+      <xdr:rowOff>149771</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>20409</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>179025</xdr:rowOff>
+      <xdr:rowOff>168820</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2639,8 +2639,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="8067450" y="4446225"/>
-          <a:ext cx="3638775" cy="257175"/>
+          <a:off x="10035043" y="4558485"/>
+          <a:ext cx="3592509" cy="263978"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2672,16 +2672,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>261825</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>234609</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>15150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>233250</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>24494</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2699,8 +2699,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="12606225" y="3825150"/>
-          <a:ext cx="1343025" cy="261075"/>
+          <a:off x="12481038" y="3934007"/>
+          <a:ext cx="1359355" cy="254273"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2732,16 +2732,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>233250</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>15150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>252300</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2759,8 +2759,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="13949250" y="3825150"/>
-          <a:ext cx="19050" cy="1204050"/>
+          <a:off x="13840393" y="3934007"/>
+          <a:ext cx="699407" cy="993140"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2792,16 +2792,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>261825</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>234609</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>43725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>261825</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>30119</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>275432</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>74840</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2818,9 +2818,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="12606225" y="4806225"/>
-          <a:ext cx="0" cy="1194525"/>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="14522109" y="4928690"/>
+          <a:ext cx="40823" cy="779507"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2852,13 +2852,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>447450</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>15150</xdr:rowOff>
@@ -2914,16 +2914,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>466500</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>34200</xdr:rowOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>34201</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2938,8 +2938,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13068300" y="5029200"/>
-          <a:ext cx="1800000" cy="720000"/>
+          <a:off x="13645243" y="4927147"/>
+          <a:ext cx="1789114" cy="740411"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2976,13 +2976,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>299925</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>53250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>233250</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -3036,16 +3036,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>523650</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>510043</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>179025</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:rowOff>168820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>150450</xdr:rowOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>153853</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3063,8 +3063,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8067450" y="4703400"/>
-          <a:ext cx="5000850" cy="685800"/>
+          <a:off x="10035043" y="4822463"/>
+          <a:ext cx="5651271" cy="474890"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3096,16 +3096,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>309450</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>295843</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>43725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>261825</xdr:colOff>
+      <xdr:rowOff>30119</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>234609</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>62775</xdr:rowOff>
+      <xdr:rowOff>49168</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3123,8 +3123,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="7167450" y="4806225"/>
-          <a:ext cx="5438775" cy="257175"/>
+          <a:off x="9140486" y="4928690"/>
+          <a:ext cx="5381623" cy="263978"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3157,16 +3157,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>309450</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>295843</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>62775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>252300</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>34200</xdr:rowOff>
+      <xdr:rowOff>49168</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>252301</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>34201</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3184,8 +3184,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="7167450" y="5063400"/>
-          <a:ext cx="6800850" cy="685800"/>
+          <a:off x="9140486" y="5192668"/>
+          <a:ext cx="7440386" cy="474890"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3218,16 +3218,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>309450</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>295843</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>62775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>261825</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>53250</xdr:rowOff>
+      <xdr:rowOff>49168</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>275432</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>80465</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3245,8 +3245,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="7167450" y="5063400"/>
-          <a:ext cx="5438775" cy="1657350"/>
+          <a:off x="9140486" y="5192668"/>
+          <a:ext cx="5422446" cy="1255940"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3279,16 +3279,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>290400</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>34200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>261825</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>234609</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>24494</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3306,8 +3306,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="9891600" y="3844200"/>
-          <a:ext cx="2714625" cy="242025"/>
+          <a:off x="9815400" y="3953057"/>
+          <a:ext cx="2665638" cy="235223"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3340,16 +3340,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>261825</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>275432</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>34200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>309450</xdr:colOff>
+      <xdr:rowOff>47807</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>295843</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>43543</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3367,8 +3367,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7119825" y="3844200"/>
-          <a:ext cx="47625" cy="499200"/>
+          <a:off x="7759361" y="3966664"/>
+          <a:ext cx="1381125" cy="485593"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3401,16 +3401,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>217714</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>136070</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3425,8 +3425,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="561975" y="2524125"/>
-          <a:ext cx="5276850" cy="3962400"/>
+          <a:off x="898071" y="2592160"/>
+          <a:ext cx="5606143" cy="5626553"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3467,16 +3467,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>232683</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>138793</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>28576</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>176892</xdr:rowOff>
+      <xdr:rowOff>138792</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>149679</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3491,8 +3491,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11118397" y="2833007"/>
-          <a:ext cx="5238750" cy="4446814"/>
+          <a:off x="13159469" y="2833006"/>
+          <a:ext cx="8802460" cy="5889173"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3533,7 +3533,7 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>272143</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>54428</xdr:rowOff>
@@ -3607,10 +3607,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>220436</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>111579</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>29935</xdr:rowOff>
+      <xdr:rowOff>84363</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1467068" cy="521425"/>
     <xdr:sp macro="" textlink="">
@@ -3626,7 +3626,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="900793" y="2724149"/>
+          <a:off x="1472293" y="2778577"/>
           <a:ext cx="1467068" cy="521425"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3669,6 +3669,1832 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>27215</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>31298</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>455614</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>36923</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="正方形/長方形 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F205356B-A818-CE21-E7F3-012CC1C12701}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15675429" y="5664655"/>
+          <a:ext cx="1789114" cy="740411"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>ClearButton</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>233250</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>15150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>241415</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>31298</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="直線矢印コネクタ 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{409978A9-F4BF-A1DF-7E02-A4A97F103E27}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="9" idx="0"/>
+          <a:endCxn id="79" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="13840393" y="3934007"/>
+          <a:ext cx="2729593" cy="1730648"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="diamond"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>295843</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>49168</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>241415</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>36923</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="直線矢印コネクタ 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA494076-AFB1-70CC-E5F6-C6934C03FA43}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="9" idx="2"/>
+          <a:endCxn id="38" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="9140486" y="5192668"/>
+          <a:ext cx="9470572" cy="1212398"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>510043</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>168820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>27215</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>156575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="直線矢印コネクタ 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FB6B01B-F8B5-B44E-5426-D50E79C75704}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="38" idx="3"/>
+          <a:endCxn id="9" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10035043" y="4822463"/>
+          <a:ext cx="7681458" cy="1212398"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="diamond"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>57149</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>485549</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>53251</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="正方形/長方形 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C05F8719-CCF4-A079-6110-FD3F2D915FB0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17746435" y="6660697"/>
+          <a:ext cx="1789114" cy="740411"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>MemoButton</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>233250</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>15150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>271349</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="40" name="直線矢印コネクタ 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CB0FC24-5550-72C2-5AB8-42297500D481}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="37" idx="0"/>
+          <a:endCxn id="79" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="13840393" y="3934007"/>
+          <a:ext cx="4800599" cy="2726690"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="diamond"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>510043</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>168820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>57149</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>172903</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="44" name="直線矢印コネクタ 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6197963-A95D-3FAF-C907-26AAFD20182B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="38" idx="3"/>
+          <a:endCxn id="37" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10035043" y="4822463"/>
+          <a:ext cx="9752463" cy="2208440"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="diamond"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>295843</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>49168</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>271349</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>53251</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="48" name="直線矢印コネクタ 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1490D43D-7A18-65C3-2B0A-A672124225AA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="37" idx="2"/>
+          <a:endCxn id="38" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="9140486" y="5192668"/>
+          <a:ext cx="11541577" cy="2208440"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>31295</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>27213</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>459696</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>32839</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="101" name="正方形/長方形 100">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F91FDF30-8853-3158-955B-B08E83535E17}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10917009" y="7619999"/>
+          <a:ext cx="1789116" cy="740411"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>IMissUI</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>46264</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>474664</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>15151</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="102" name="正方形/長方形 101">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E34D1E2A-B979-951A-E9BE-32499568399C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17055193" y="7602311"/>
+          <a:ext cx="1789114" cy="740411"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>MissUI</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>459696</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>134803</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>46264</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>152491</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="103" name="直線矢印コネクタ 102">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D33B86D7-22D0-8CB4-AD7D-463C0E4BE7D1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="102" idx="1"/>
+          <a:endCxn id="101" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="12706125" y="7972517"/>
+          <a:ext cx="4349068" cy="17688"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="92D050"/>
+          </a:solidFill>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="oval"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>233250</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>15150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>260464</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="107" name="直線矢印コネクタ 106">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{313704FF-2138-4C3B-91A0-4A05EDFE05BC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="102" idx="0"/>
+          <a:endCxn id="79" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="15881464" y="3934007"/>
+          <a:ext cx="2068286" cy="3668304"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="diamond"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>245496</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>134802</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>27213</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="110" name="直線矢印コネクタ 109">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36EA78C8-7BA5-D0DC-E7A5-6DBD63B225FE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="79" idx="1"/>
+          <a:endCxn id="101" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="11811567" y="3563802"/>
+          <a:ext cx="3175340" cy="4056197"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>269988</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>34200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>245496</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>27213</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="115" name="直線矢印コネクタ 114">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8EF91F0A-8966-48D1-0D0D-F7604EA45559}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="21" idx="2"/>
+          <a:endCxn id="101" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5032488" y="3953057"/>
+          <a:ext cx="6779079" cy="3666942"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>61232</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>84365</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>489631</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>89990</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="119" name="正方形/長方形 118">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C055AFEB-3047-5064-A43E-0AFAA998952E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6864803" y="8411936"/>
+          <a:ext cx="1789114" cy="740411"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>IJudge</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>23131</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>451532</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>24675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="120" name="正方形/長方形 119">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3AA278E0-80CA-3077-3C2D-C7DADABE5B45}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4105274" y="6877050"/>
+          <a:ext cx="1789115" cy="740411"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Judge</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>451532</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>144327</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>61232</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>209642</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="124" name="直線矢印コネクタ 123">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C55627A6-B068-C31A-67E0-7B3BCF276A4D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="120" idx="3"/>
+          <a:endCxn id="119" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5894389" y="7247256"/>
+          <a:ext cx="970414" cy="1534886"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="92D050"/>
+          </a:solidFill>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="oval"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>269988</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>34200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>61232</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>209642</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="128" name="直線矢印コネクタ 127">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4541B97B-CABF-ACE4-AAFE-8466026449FB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="119" idx="1"/>
+          <a:endCxn id="21" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="5032488" y="3953057"/>
+          <a:ext cx="1832315" cy="4829085"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="diamond"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>451532</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>144327</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>245496</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>27213</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="132" name="直線矢印コネクタ 131">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92110DA2-72C5-8112-15D1-22746F67C4B7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="120" idx="3"/>
+          <a:endCxn id="101" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5894389" y="7247256"/>
+          <a:ext cx="5917178" cy="372743"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>237332</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>53250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>309451</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="141" name="直線矢印コネクタ 140">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C791742-82CF-69B8-67BA-6329F15B6332}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="120" idx="0"/>
+          <a:endCxn id="6" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4999832" y="2257607"/>
+          <a:ext cx="2113190" cy="4619443"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>451532</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>217806</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>55789</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>144327</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="144" name="直線矢印コネクタ 143">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A2C1DA8-7673-7744-E633-93BDC861A16A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="120" idx="3"/>
+          <a:endCxn id="50" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5894389" y="6096092"/>
+          <a:ext cx="3006043" cy="1151164"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>275431</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>98154</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>269989</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>84365</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="153" name="直線矢印コネクタ 152">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1BB0445-724C-F778-9DC5-19DFDBC976FF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="119" idx="0"/>
+          <a:endCxn id="50" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7759360" y="6466297"/>
+          <a:ext cx="2035629" cy="1945639"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>275431</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>47807</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>275432</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>84365</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="156" name="直線矢印コネクタ 155">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E223615B-F1D4-2D3E-2CC7-9365A1603324}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="17" idx="2"/>
+          <a:endCxn id="119" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7759360" y="3966664"/>
+          <a:ext cx="1" cy="4445272"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>489631</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>149771</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>20409</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>209642</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="159" name="直線矢印コネクタ 158">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41B320E0-D007-61ED-06F3-1151B694C48A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="119" idx="3"/>
+          <a:endCxn id="62" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8653917" y="4558485"/>
+          <a:ext cx="4973635" cy="4223657"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="diamond"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>489631</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>80465</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>275432</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>209642</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="162" name="直線矢印コネクタ 161">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CB853C2-7449-07EB-1D52-9F67F936661C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="119" idx="3"/>
+          <a:endCxn id="54" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8653917" y="6448608"/>
+          <a:ext cx="5909015" cy="2333534"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="diamond"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>275431</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>149771</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>20409</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>84365</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="165" name="直線矢印コネクタ 164">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A66656B-030A-43C8-F3E4-56DA5FA05D47}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="62" idx="1"/>
+          <a:endCxn id="119" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7759360" y="4558485"/>
+          <a:ext cx="5868192" cy="3853451"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>275431</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>200117</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>61232</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>84365</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="168" name="直線矢印コネクタ 167">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{610A5F12-DF98-EDF2-5DFE-800ED045258D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="54" idx="1"/>
+          <a:endCxn id="119" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7759360" y="6078403"/>
+          <a:ext cx="5909015" cy="2333533"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>269988</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>34200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>275431</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>84365</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="211" name="直線矢印コネクタ 210">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BF58E36-61ED-1DC3-33E0-589BD08CA6CB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="21" idx="2"/>
+          <a:endCxn id="119" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5032488" y="3953057"/>
+          <a:ext cx="2726872" cy="4458879"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>237332</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>34200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>269988</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="241" name="直線矢印コネクタ 240">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2929E8B-4361-893E-59F7-697B2BD3310A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="21" idx="2"/>
+          <a:endCxn id="120" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4999832" y="3953057"/>
+          <a:ext cx="32656" cy="2923993"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>389732</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>34200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>269988</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>34018</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="289" name="直線矢印コネクタ 288">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD630E88-6164-8740-935E-05341009D925}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="21" idx="2"/>
+          <a:endCxn id="28" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4471875" y="3953057"/>
+          <a:ext cx="560613" cy="489675"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4080,26 +5906,26 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57DD9B51-692E-4039-98B6-6C0D19A95D03}">
-  <dimension ref="B2:B4"/>
+  <dimension ref="E2:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView tabSelected="1" topLeftCell="B6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B2" t="s">
+    <row r="2" spans="5:5" x14ac:dyDescent="0.4">
+      <c r="E2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B3" t="s">
+    <row r="3" spans="5:5" x14ac:dyDescent="0.4">
+      <c r="E3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B4" t="s">
+    <row r="4" spans="5:5" x14ac:dyDescent="0.4">
+      <c r="E4" t="s">
         <v>15</v>
       </c>
     </row>

--- a/Assets/仕様書.xlsx
+++ b/Assets/仕様書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alfam\Documents\Sudoku_Git\Assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3FE3C1A-D7B7-4AF0-8FA8-676AF0E05470}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E536900-77E0-487C-A8F6-DCA130126416}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="15000" activeTab="3" xr2:uid="{4521FB58-C6D8-458F-B2B5-CA63D47F7699}"/>
   </bookViews>
@@ -912,6 +912,66 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>442007</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>168820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>27215</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>156575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="直線矢印コネクタ 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FB6B01B-F8B5-B44E-5426-D50E79C75704}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="38" idx="3"/>
+          <a:endCxn id="9" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10647364" y="5312320"/>
+          <a:ext cx="7069137" cy="722541"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="diamond"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>200024</xdr:colOff>
       <xdr:row>1</xdr:row>
@@ -1392,15 +1452,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>61233</xdr:colOff>
+      <xdr:colOff>102054</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>42182</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>489632</xdr:colOff>
+      <xdr:colOff>530453</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>47807</xdr:rowOff>
+      <xdr:rowOff>34200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1415,7 +1475,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6864804" y="3226253"/>
+          <a:off x="6905625" y="3212646"/>
           <a:ext cx="1789114" cy="740411"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1454,7 +1514,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>275432</xdr:colOff>
+      <xdr:colOff>316253</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>53250</xdr:rowOff>
     </xdr:from>
@@ -1462,7 +1522,7 @@
       <xdr:col>14</xdr:col>
       <xdr:colOff>299925</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>42182</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1480,8 +1540,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="7759361" y="2257607"/>
-          <a:ext cx="2065564" cy="968646"/>
+          <a:off x="7800182" y="2257607"/>
+          <a:ext cx="2024743" cy="955039"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1581,9 +1641,9 @@
       <xdr:rowOff>34200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>295843</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>227807</xdr:colOff>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>43543</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1603,7 +1663,7 @@
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
           <a:off x="5032488" y="3953057"/>
-          <a:ext cx="4107998" cy="499200"/>
+          <a:ext cx="4720319" cy="989057"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1642,9 +1702,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>61233</xdr:colOff>
+      <xdr:colOff>102054</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>167459</xdr:rowOff>
+      <xdr:rowOff>153852</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1663,7 +1723,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5927045" y="3582852"/>
-          <a:ext cx="937759" cy="13607"/>
+          <a:ext cx="978580" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1696,15 +1756,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>175532</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>34018</xdr:rowOff>
+      <xdr:colOff>148317</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>88446</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>603932</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>39643</xdr:rowOff>
+      <xdr:colOff>576717</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>94071</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1719,7 +1779,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3577318" y="4442732"/>
+          <a:off x="3550103" y="4987017"/>
           <a:ext cx="1789114" cy="740411"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1942,7 +2002,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>489632</xdr:colOff>
+      <xdr:colOff>530453</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>153852</xdr:rowOff>
     </xdr:from>
@@ -1950,7 +2010,7 @@
       <xdr:col>16</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>167459</xdr:rowOff>
+      <xdr:rowOff>153852</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1967,9 +2027,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="8653918" y="3582852"/>
-          <a:ext cx="2307996" cy="13607"/>
+        <a:xfrm>
+          <a:off x="8694739" y="3582852"/>
+          <a:ext cx="2267175" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2001,15 +2061,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>81643</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>13607</xdr:colOff>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>43543</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>510043</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>442007</xdr:colOff>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>49168</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2025,7 +2085,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8245929" y="4452257"/>
+          <a:off x="8858250" y="4942114"/>
           <a:ext cx="1789114" cy="740411"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2064,15 +2124,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>603932</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>159295</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>81643</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:colOff>576717</xdr:colOff>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>168820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>13607</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>213723</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2089,9 +2149,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5366432" y="4812938"/>
-          <a:ext cx="2879497" cy="9525"/>
+        <a:xfrm flipV="1">
+          <a:off x="5339217" y="5312320"/>
+          <a:ext cx="3519033" cy="44903"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2190,10 +2250,10 @@
       <xdr:rowOff>34200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>81643</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>168820</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>227807</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>43543</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2206,13 +2266,13 @@
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="21" idx="2"/>
-          <a:endCxn id="38" idx="1"/>
+          <a:endCxn id="38" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5032488" y="3953057"/>
-          <a:ext cx="3213441" cy="869406"/>
+          <a:ext cx="4720319" cy="989057"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2246,15 +2306,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>55789</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>92529</xdr:rowOff>
+      <xdr:colOff>42182</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>484189</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>98154</xdr:rowOff>
+      <xdr:colOff>470582</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>43725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2269,7 +2329,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8900432" y="5725886"/>
+          <a:off x="8886825" y="6161314"/>
           <a:ext cx="1789114" cy="740411"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2307,16 +2367,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>295843</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>227807</xdr:colOff>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>49168</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>269989</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>92529</xdr:rowOff>
+      <xdr:colOff>256382</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2334,8 +2394,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9140486" y="5192668"/>
-          <a:ext cx="654503" cy="533218"/>
+          <a:off x="9752807" y="5682525"/>
+          <a:ext cx="28575" cy="478789"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2369,15 +2429,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>61232</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>74840</xdr:rowOff>
+      <xdr:colOff>20411</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>34019</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>489632</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>80465</xdr:rowOff>
+      <xdr:colOff>448811</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>39644</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2392,7 +2452,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13668375" y="5708197"/>
+          <a:off x="13627554" y="6157233"/>
           <a:ext cx="1789114" cy="740411"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2431,15 +2491,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>484189</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>200117</xdr:rowOff>
+      <xdr:colOff>470582</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>159296</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>61232</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>217806</xdr:rowOff>
+      <xdr:colOff>20411</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>163377</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2457,8 +2517,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="10689546" y="6078403"/>
-          <a:ext cx="2978829" cy="17689"/>
+          <a:off x="10675939" y="6527439"/>
+          <a:ext cx="2951615" cy="4081"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2490,16 +2550,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>510043</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>442007</xdr:colOff>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>168820</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>61232</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>200117</xdr:rowOff>
+      <xdr:colOff>20411</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>159296</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2517,8 +2577,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10035043" y="4822463"/>
-          <a:ext cx="3633332" cy="1255940"/>
+          <a:off x="10647364" y="5312320"/>
+          <a:ext cx="2980190" cy="1215119"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2552,14 +2612,14 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>20409</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>24494</xdr:rowOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>10888</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>448809</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>30119</xdr:rowOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>16512</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2574,8 +2634,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11586480" y="4188280"/>
-          <a:ext cx="1789115" cy="740410"/>
+          <a:off x="13627552" y="4419602"/>
+          <a:ext cx="1789114" cy="740410"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2612,35 +2672,35 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>510043</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>234609</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>28757</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>260464</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>149771</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>20409</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>168820</xdr:rowOff>
+      <xdr:rowOff>10888</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="67" name="直線矢印コネクタ 66">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7C96619-DDE9-FEA3-3BF4-3ECF6EC46272}"/>
+        <xdr:cNvPr id="70" name="直線矢印コネクタ 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23EC47FE-59C1-821F-A8FA-0B9F2B274892}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="38" idx="3"/>
-          <a:endCxn id="62" idx="1"/>
+          <a:stCxn id="62" idx="0"/>
+          <a:endCxn id="79" idx="2"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="10035043" y="4558485"/>
-          <a:ext cx="3592509" cy="263978"/>
+          <a:off x="14522109" y="3947614"/>
+          <a:ext cx="3427641" cy="471988"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2672,35 +2732,35 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>234609</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>252301</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>15150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>233250</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>24494</xdr:rowOff>
+      <xdr:rowOff>28757</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>260464</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="70" name="直線矢印コネクタ 69">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23EC47FE-59C1-821F-A8FA-0B9F2B274892}"/>
+        <xdr:cNvPr id="71" name="直線矢印コネクタ 70">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA0121E2-D715-F2E1-068F-13CD1289AC64}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="62" idx="0"/>
+          <a:stCxn id="82" idx="0"/>
           <a:endCxn id="79" idx="2"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="12481038" y="3934007"/>
-          <a:ext cx="1359355" cy="254273"/>
+          <a:off x="16580872" y="3947614"/>
+          <a:ext cx="1368878" cy="979533"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2732,35 +2792,35 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>233250</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>15150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>252300</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>28576</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>234609</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>16512</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>234611</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>34019</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="71" name="直線矢印コネクタ 70">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA0121E2-D715-F2E1-068F-13CD1289AC64}"/>
+        <xdr:cNvPr id="72" name="直線矢印コネクタ 71">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9C33D90-9517-BBBB-8F39-7E8D63C3DE56}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="82" idx="0"/>
-          <a:endCxn id="79" idx="2"/>
+          <a:stCxn id="54" idx="0"/>
+          <a:endCxn id="62" idx="2"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="13840393" y="3934007"/>
-          <a:ext cx="699407" cy="993140"/>
+          <a:off x="14522109" y="5160012"/>
+          <a:ext cx="2" cy="997221"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2792,76 +2852,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>234609</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>30119</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>275432</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>74840</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="72" name="直線矢印コネクタ 71">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9C33D90-9517-BBBB-8F39-7E8D63C3DE56}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="54" idx="0"/>
-          <a:endCxn id="62" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="14522109" y="4928690"/>
-          <a:ext cx="40823" cy="779507"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:srgbClr val="0070C0"/>
-          </a:solidFill>
-          <a:headEnd type="none"/>
-          <a:tailEnd type="diamond"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>46264</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>447450</xdr:colOff>
+      <xdr:rowOff>23132</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>474664</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>15150</xdr:rowOff>
+      <xdr:rowOff>28757</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2876,8 +2876,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13049250" y="3105150"/>
-          <a:ext cx="1800000" cy="720000"/>
+          <a:off x="17055193" y="3207203"/>
+          <a:ext cx="1789114" cy="740411"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2982,10 +2982,10 @@
       <xdr:rowOff>53250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>233250</xdr:colOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>260464</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>23132</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3003,8 +3003,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="7843725" y="2196375"/>
-          <a:ext cx="6105525" cy="908775"/>
+          <a:off x="9824925" y="2257607"/>
+          <a:ext cx="8124825" cy="949596"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3036,16 +3036,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>510043</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>168820</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>442007</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>153853</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>153853</xdr:rowOff>
+      <xdr:rowOff>168820</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3062,9 +3062,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10035043" y="4822463"/>
-          <a:ext cx="5651271" cy="474890"/>
+        <a:xfrm flipV="1">
+          <a:off x="10647364" y="5297353"/>
+          <a:ext cx="5038950" cy="14967"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3096,16 +3096,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>295843</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>30119</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>234609</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>442007</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>136164</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>20409</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>49168</xdr:rowOff>
+      <xdr:rowOff>168820</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3117,14 +3117,14 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="62" idx="2"/>
-          <a:endCxn id="38" idx="2"/>
+          <a:stCxn id="62" idx="1"/>
+          <a:endCxn id="38" idx="3"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="9140486" y="4928690"/>
-          <a:ext cx="5381623" cy="263978"/>
+          <a:off x="10647364" y="4789807"/>
+          <a:ext cx="2980188" cy="522513"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3157,16 +3157,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>295843</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>442007</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>49168</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>252301</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>34201</xdr:rowOff>
+      <xdr:rowOff>153853</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>168820</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3178,14 +3178,15 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="82" idx="2"/>
-          <a:endCxn id="38" idx="2"/>
+          <a:cxnSpLocks/>
+          <a:stCxn id="82" idx="1"/>
+          <a:endCxn id="38" idx="3"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="9140486" y="5192668"/>
-          <a:ext cx="7440386" cy="474890"/>
+        <a:xfrm flipH="1">
+          <a:off x="10647364" y="5297353"/>
+          <a:ext cx="5038950" cy="14967"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3218,16 +3219,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>295843</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>442007</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>49168</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>275432</xdr:colOff>
+      <xdr:rowOff>168820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>20411</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>80465</xdr:rowOff>
+      <xdr:rowOff>159296</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3239,14 +3240,14 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="54" idx="2"/>
-          <a:endCxn id="38" idx="2"/>
+          <a:stCxn id="54" idx="1"/>
+          <a:endCxn id="38" idx="3"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="9140486" y="5192668"/>
-          <a:ext cx="5422446" cy="1255940"/>
+          <a:off x="10647364" y="5312320"/>
+          <a:ext cx="2980190" cy="1215119"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3280,15 +3281,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>290400</xdr:colOff>
+      <xdr:colOff>290401</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>34200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>234609</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>24494</xdr:rowOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>10888</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3306,8 +3307,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="9815400" y="3953057"/>
-          <a:ext cx="2665638" cy="235223"/>
+          <a:off x="11856472" y="3953057"/>
+          <a:ext cx="2665637" cy="466545"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3341,14 +3342,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>275432</xdr:colOff>
+      <xdr:colOff>316253</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>47807</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>295843</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:rowOff>34200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>227807</xdr:colOff>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>43543</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3367,8 +3368,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7759361" y="3966664"/>
-          <a:ext cx="1381125" cy="485593"/>
+          <a:off x="7800182" y="3953057"/>
+          <a:ext cx="1952625" cy="989057"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3409,8 +3410,8 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>136070</xdr:rowOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>54429</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3426,7 +3427,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="898071" y="2592160"/>
-          <a:ext cx="5606143" cy="5626553"/>
+          <a:ext cx="5606143" cy="6524626"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3533,10 +3534,10 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>272143</xdr:colOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>122465</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>54428</xdr:rowOff>
+      <xdr:rowOff>27213</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="721416" cy="521425"/>
     <xdr:sp macro="" textlink="">
@@ -3552,7 +3553,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15240000" y="2993571"/>
+          <a:off x="19852822" y="2966356"/>
           <a:ext cx="721416" cy="521425"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3733,10 +3734,10 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>233250</xdr:colOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>260464</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>15150</xdr:rowOff>
+      <xdr:rowOff>28757</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
@@ -3760,8 +3761,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="13840393" y="3934007"/>
-          <a:ext cx="2729593" cy="1730648"/>
+          <a:off x="17949750" y="3947614"/>
+          <a:ext cx="661308" cy="1717041"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3793,16 +3794,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>295843</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>442007</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>49168</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>241415</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>36923</xdr:rowOff>
+      <xdr:rowOff>168820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>27215</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>156575</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3814,14 +3815,14 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="9" idx="2"/>
-          <a:endCxn id="38" idx="2"/>
+          <a:stCxn id="9" idx="1"/>
+          <a:endCxn id="38" idx="3"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="9140486" y="5192668"/>
-          <a:ext cx="9470572" cy="1212398"/>
+          <a:off x="10647364" y="5312320"/>
+          <a:ext cx="7069137" cy="722541"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3833,66 +3834,6 @@
           <a:prstDash val="dash"/>
           <a:headEnd type="none"/>
           <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>510043</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>168820</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>27215</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>156575</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="26" name="直線矢印コネクタ 25">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FB6B01B-F8B5-B44E-5426-D50E79C75704}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="38" idx="3"/>
-          <a:endCxn id="9" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10035043" y="4822463"/>
-          <a:ext cx="7681458" cy="1212398"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:srgbClr val="0070C0"/>
-          </a:solidFill>
-          <a:headEnd type="none"/>
-          <a:tailEnd type="diamond"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -3976,10 +3917,10 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>233250</xdr:colOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>260464</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>15150</xdr:rowOff>
+      <xdr:rowOff>28757</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
@@ -4003,8 +3944,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="13840393" y="3934007"/>
-          <a:ext cx="4800599" cy="2726690"/>
+          <a:off x="17949750" y="3947614"/>
+          <a:ext cx="2732313" cy="2713083"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4036,9 +3977,9 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>510043</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>442007</xdr:colOff>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>168820</xdr:rowOff>
     </xdr:from>
     <xdr:to>
@@ -4063,8 +4004,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10035043" y="4822463"/>
-          <a:ext cx="9752463" cy="2208440"/>
+          <a:off x="10647364" y="5312320"/>
+          <a:ext cx="9140142" cy="1718583"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4096,16 +4037,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>295843</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>442007</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>49168</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>271349</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>53251</xdr:rowOff>
+      <xdr:rowOff>168820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>57149</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>172903</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4117,14 +4058,14 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="37" idx="2"/>
-          <a:endCxn id="38" idx="2"/>
+          <a:stCxn id="37" idx="1"/>
+          <a:endCxn id="38" idx="3"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="9140486" y="5192668"/>
-          <a:ext cx="11541577" cy="2208440"/>
+          <a:off x="10647364" y="5312320"/>
+          <a:ext cx="9140142" cy="1718583"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4159,13 +4100,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>31295</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>27213</xdr:rowOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>27214</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>459696</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>32839</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4181,7 +4122,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10917009" y="7619999"/>
+          <a:off x="10917009" y="8354785"/>
           <a:ext cx="1789116" cy="740411"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4289,7 +4230,7 @@
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>46264</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>152491</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4309,7 +4250,7 @@
       <xdr:spPr>
         <a:xfrm flipH="1">
           <a:off x="12706125" y="7972517"/>
-          <a:ext cx="4349068" cy="17688"/>
+          <a:ext cx="4349068" cy="752474"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4341,10 +4282,10 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>233250</xdr:colOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>260464</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>15150</xdr:rowOff>
+      <xdr:rowOff>28757</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
@@ -4367,9 +4308,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="15881464" y="3934007"/>
-          <a:ext cx="2068286" cy="3668304"/>
+        <a:xfrm flipV="1">
+          <a:off x="17949750" y="3947614"/>
+          <a:ext cx="0" cy="3654697"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4404,13 +4345,13 @@
       <xdr:col>17</xdr:col>
       <xdr:colOff>245496</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>134802</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>27213</xdr:rowOff>
+      <xdr:rowOff>148409</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>46264</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>27214</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4428,8 +4369,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="11811567" y="3563802"/>
-          <a:ext cx="3175340" cy="4056197"/>
+          <a:off x="11811567" y="3577409"/>
+          <a:ext cx="5243626" cy="4777376"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4470,8 +4411,8 @@
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>245496</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>27213</xdr:rowOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>27214</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4490,7 +4431,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5032488" y="3953057"/>
-          <a:ext cx="6779079" cy="3666942"/>
+          <a:ext cx="6779079" cy="4401728"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4524,15 +4465,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>61232</xdr:colOff>
+      <xdr:colOff>47625</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>84365</xdr:rowOff>
+      <xdr:rowOff>57151</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>489631</xdr:colOff>
+      <xdr:colOff>476024</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>89990</xdr:rowOff>
+      <xdr:rowOff>62776</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4547,7 +4488,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6864803" y="8411936"/>
+          <a:off x="6851196" y="8384722"/>
           <a:ext cx="1789114" cy="740411"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4588,13 +4529,13 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>23131</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>59872</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>451532</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>24675</xdr:rowOff>
+      <xdr:rowOff>65497</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4609,7 +4550,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4105274" y="6877050"/>
+          <a:off x="4105274" y="6917872"/>
           <a:ext cx="1789115" cy="740411"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4650,13 +4591,13 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>451532</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>144327</xdr:rowOff>
+      <xdr:rowOff>185149</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>61232</xdr:colOff>
+      <xdr:colOff>47625</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>209642</xdr:rowOff>
+      <xdr:rowOff>182428</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4674,8 +4615,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5894389" y="7247256"/>
-          <a:ext cx="970414" cy="1534886"/>
+          <a:off x="5894389" y="7288078"/>
+          <a:ext cx="956807" cy="1466850"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4713,10 +4654,10 @@
       <xdr:rowOff>34200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>61232</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>209642</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>261824</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4728,14 +4669,14 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="119" idx="1"/>
+          <a:stCxn id="119" idx="0"/>
           <a:endCxn id="21" idx="2"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
           <a:off x="5032488" y="3953057"/>
-          <a:ext cx="1832315" cy="4829085"/>
+          <a:ext cx="2713265" cy="4431665"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4770,13 +4711,13 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>451532</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>144327</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>245496</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>27213</xdr:rowOff>
+      <xdr:rowOff>185149</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>31295</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>152491</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4789,13 +4730,13 @@
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="120" idx="3"/>
-          <a:endCxn id="101" idx="0"/>
+          <a:endCxn id="101" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5894389" y="7247256"/>
-          <a:ext cx="5917178" cy="372743"/>
+          <a:off x="5894389" y="7288078"/>
+          <a:ext cx="5022620" cy="1436913"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4828,16 +4769,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>237332</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>451532</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>53250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>309451</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>185149</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4849,14 +4790,14 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="120" idx="0"/>
+          <a:stCxn id="120" idx="3"/>
           <a:endCxn id="6" idx="2"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="4999832" y="2257607"/>
-          <a:ext cx="2113190" cy="4619443"/>
+          <a:off x="5894389" y="2257607"/>
+          <a:ext cx="1218633" cy="5030471"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4891,14 +4832,14 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>451532</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>217806</xdr:rowOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>163377</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>55789</xdr:colOff>
+      <xdr:colOff>42182</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>144327</xdr:rowOff>
+      <xdr:rowOff>185149</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4916,8 +4857,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="5894389" y="6096092"/>
-          <a:ext cx="3006043" cy="1151164"/>
+          <a:off x="5894389" y="6531520"/>
+          <a:ext cx="2992436" cy="756558"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4951,15 +4892,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>275431</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>98154</xdr:rowOff>
+      <xdr:colOff>261824</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>43725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>269989</xdr:colOff>
+      <xdr:colOff>256382</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>84365</xdr:rowOff>
+      <xdr:rowOff>57151</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4977,8 +4918,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="7759360" y="6466297"/>
-          <a:ext cx="2035629" cy="1945639"/>
+          <a:off x="7745753" y="6901725"/>
+          <a:ext cx="2035629" cy="1482997"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5012,15 +4953,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>275431</xdr:colOff>
+      <xdr:colOff>261824</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>47807</xdr:rowOff>
+      <xdr:rowOff>34200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>275432</xdr:colOff>
+      <xdr:colOff>316253</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>84365</xdr:rowOff>
+      <xdr:rowOff>57151</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5038,8 +4979,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="7759360" y="3966664"/>
-          <a:ext cx="1" cy="4445272"/>
+          <a:off x="7745753" y="3953057"/>
+          <a:ext cx="54429" cy="4431665"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5073,34 +5014,34 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>489631</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>149771</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>20409</xdr:colOff>
+      <xdr:colOff>476024</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>39644</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>234611</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>209642</xdr:rowOff>
+      <xdr:rowOff>182428</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="159" name="直線矢印コネクタ 158">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41B320E0-D007-61ED-06F3-1151B694C48A}"/>
+        <xdr:cNvPr id="162" name="直線矢印コネクタ 161">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CB853C2-7449-07EB-1D52-9F67F936661C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="119" idx="3"/>
-          <a:endCxn id="62" idx="1"/>
+          <a:endCxn id="54" idx="2"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="8653917" y="4558485"/>
-          <a:ext cx="4973635" cy="4223657"/>
+          <a:off x="8640310" y="6897644"/>
+          <a:ext cx="5881801" cy="1857284"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5133,75 +5074,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>489631</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>80465</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>275432</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>209642</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="162" name="直線矢印コネクタ 161">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CB853C2-7449-07EB-1D52-9F67F936661C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="119" idx="3"/>
-          <a:endCxn id="54" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="8653917" y="6448608"/>
-          <a:ext cx="5909015" cy="2333534"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:srgbClr val="0070C0"/>
-          </a:solidFill>
-          <a:headEnd type="none"/>
-          <a:tailEnd type="diamond"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>275431</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>149771</xdr:rowOff>
+      <xdr:colOff>476024</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>136164</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>20409</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>84365</xdr:rowOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>182428</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5214,13 +5095,13 @@
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="62" idx="1"/>
-          <a:endCxn id="119" idx="0"/>
+          <a:endCxn id="119" idx="3"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="7759360" y="4558485"/>
-          <a:ext cx="5868192" cy="3853451"/>
+          <a:off x="8640310" y="4789807"/>
+          <a:ext cx="4987242" cy="3965121"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5253,16 +5134,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>275431</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>200117</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>61232</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>84365</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>476024</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>39644</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>234611</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>182428</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5274,14 +5155,14 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="54" idx="1"/>
-          <a:endCxn id="119" idx="0"/>
+          <a:stCxn id="54" idx="2"/>
+          <a:endCxn id="119" idx="3"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="7759360" y="6078403"/>
-          <a:ext cx="5909015" cy="2333533"/>
+          <a:off x="8640310" y="6897644"/>
+          <a:ext cx="5881801" cy="1857284"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5321,9 +5202,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>275431</xdr:colOff>
+      <xdr:colOff>261824</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>84365</xdr:rowOff>
+      <xdr:rowOff>57151</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5342,7 +5223,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5032488" y="3953057"/>
-          <a:ext cx="2726872" cy="4458879"/>
+          <a:ext cx="2713265" cy="4431665"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5384,7 +5265,7 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>269988</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>59872</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5403,7 +5284,7 @@
       <xdr:spPr>
         <a:xfrm flipH="1">
           <a:off x="4999832" y="3953057"/>
-          <a:ext cx="32656" cy="2923993"/>
+          <a:ext cx="32656" cy="2964815"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5437,15 +5318,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>389732</xdr:colOff>
+      <xdr:colOff>362517</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>34200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>269988</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>34018</xdr:rowOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>88446</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5463,8 +5344,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="4471875" y="3953057"/>
-          <a:ext cx="560613" cy="489675"/>
+          <a:off x="4444660" y="3953057"/>
+          <a:ext cx="587828" cy="1033960"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5909,7 +5790,7 @@
   <dimension ref="E2:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="N38" sqref="N38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/Assets/仕様書.xlsx
+++ b/Assets/仕様書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alfam\Documents\Sudoku_Git\Assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E536900-77E0-487C-A8F6-DCA130126416}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D65140FB-488F-4BD9-A18B-0C7A5EB8CE10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="15000" activeTab="3" xr2:uid="{4521FB58-C6D8-458F-B2B5-CA63D47F7699}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>タスク</t>
     <phoneticPr fontId="1"/>
@@ -136,12 +136,29 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>しかし逆を言えば参照されていないものはインターフェイス化する必要はない</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>参照されているのはインターフェイス化する必要がある</t>
+    <rPh sb="0" eb="2">
+      <t>サンショウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -154,6 +171,14 @@
       <sz val="6"/>
       <name val="游ゴシック"/>
       <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -239,7 +264,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -259,6 +284,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5357,6 +5385,66 @@
           <a:prstDash val="dash"/>
           <a:headEnd type="none"/>
           <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>576717</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>213723</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>42182</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>163377</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="直線矢印コネクタ 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A69BB45-2095-8810-7E55-355AB9ABCE1B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="50" idx="1"/>
+          <a:endCxn id="28" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="5339217" y="5357223"/>
+          <a:ext cx="3547608" cy="1174297"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="diamond"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -5787,25 +5875,31 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57DD9B51-692E-4039-98B6-6C0D19A95D03}">
-  <dimension ref="E2:E4"/>
+  <dimension ref="E2:V4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N38" sqref="N38"/>
+    <sheetView tabSelected="1" topLeftCell="B5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="T3" sqref="T3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="2" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="5:22" x14ac:dyDescent="0.4">
       <c r="E2" t="s">
         <v>14</v>
       </c>
+      <c r="V2" s="7" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="3" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="5:22" x14ac:dyDescent="0.4">
       <c r="E3" t="s">
         <v>16</v>
       </c>
+      <c r="V3" s="7" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="4" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="5:22" x14ac:dyDescent="0.4">
       <c r="E4" t="s">
         <v>15</v>
       </c>

--- a/Assets/仕様書.xlsx
+++ b/Assets/仕様書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alfam\Documents\Sudoku_Git\Assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D65140FB-488F-4BD9-A18B-0C7A5EB8CE10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5C43535-7D0E-4DA3-8CDF-5839344E4916}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="15000" activeTab="3" xr2:uid="{4521FB58-C6D8-458F-B2B5-CA63D47F7699}"/>
   </bookViews>
@@ -940,8 +940,68 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>451532</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>168820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>54429</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>185149</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="61" name="直線矢印コネクタ 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B6C46CA-A666-EBB6-5240-523801B4295E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="38" idx="1"/>
+          <a:endCxn id="120" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5894389" y="5312320"/>
+          <a:ext cx="3004683" cy="1975758"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="diamond"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>442007</xdr:colOff>
+      <xdr:colOff>482829</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>168820</xdr:rowOff>
     </xdr:from>
@@ -967,8 +1027,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10647364" y="5312320"/>
-          <a:ext cx="7069137" cy="722541"/>
+          <a:off x="10688186" y="5312320"/>
+          <a:ext cx="7028315" cy="722541"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1670,7 +1730,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>227807</xdr:colOff>
+      <xdr:colOff>268629</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>43543</xdr:rowOff>
     </xdr:to>
@@ -1691,7 +1751,7 @@
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
           <a:off x="5032488" y="3953057"/>
-          <a:ext cx="4720319" cy="989057"/>
+          <a:ext cx="4761141" cy="989057"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2090,13 +2150,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>13607</xdr:colOff>
+      <xdr:colOff>54429</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>43543</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>442007</xdr:colOff>
+      <xdr:colOff>482829</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>49168</xdr:rowOff>
     </xdr:to>
@@ -2113,7 +2173,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8858250" y="4942114"/>
+          <a:off x="8899072" y="4942114"/>
           <a:ext cx="1789114" cy="740411"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2158,7 +2218,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>13607</xdr:colOff>
+      <xdr:colOff>54429</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>213723</xdr:rowOff>
     </xdr:to>
@@ -2179,7 +2239,7 @@
       <xdr:spPr>
         <a:xfrm flipV="1">
           <a:off x="5339217" y="5312320"/>
-          <a:ext cx="3519033" cy="44903"/>
+          <a:ext cx="3559855" cy="44903"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2279,7 +2339,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>227807</xdr:colOff>
+      <xdr:colOff>268629</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>43543</xdr:rowOff>
     </xdr:to>
@@ -2300,7 +2360,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5032488" y="3953057"/>
-          <a:ext cx="4720319" cy="989057"/>
+          <a:ext cx="4761141" cy="989057"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2396,13 +2456,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>227807</xdr:colOff>
+      <xdr:colOff>256382</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>49168</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>256382</xdr:colOff>
+      <xdr:colOff>268629</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
@@ -2421,9 +2481,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9752807" y="5682525"/>
-          <a:ext cx="28575" cy="478789"/>
+        <a:xfrm flipH="1">
+          <a:off x="9781382" y="5682525"/>
+          <a:ext cx="12247" cy="478789"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2579,7 +2639,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>442007</xdr:colOff>
+      <xdr:colOff>482829</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>168820</xdr:rowOff>
     </xdr:from>
@@ -2605,8 +2665,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10647364" y="5312320"/>
-          <a:ext cx="2980190" cy="1215119"/>
+          <a:off x="10688186" y="5312320"/>
+          <a:ext cx="2939368" cy="1215119"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3065,7 +3125,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>442007</xdr:colOff>
+      <xdr:colOff>482829</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>153853</xdr:rowOff>
     </xdr:from>
@@ -3091,8 +3151,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="10647364" y="5297353"/>
-          <a:ext cx="5038950" cy="14967"/>
+          <a:off x="10688186" y="5297353"/>
+          <a:ext cx="4998128" cy="14967"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3125,7 +3185,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>442007</xdr:colOff>
+      <xdr:colOff>482829</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>136164</xdr:rowOff>
     </xdr:from>
@@ -3151,8 +3211,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="10647364" y="4789807"/>
-          <a:ext cx="2980188" cy="522513"/>
+          <a:off x="10688186" y="4789807"/>
+          <a:ext cx="2939366" cy="522513"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3186,7 +3246,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>442007</xdr:colOff>
+      <xdr:colOff>482829</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>153853</xdr:rowOff>
     </xdr:from>
@@ -3213,8 +3273,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="10647364" y="5297353"/>
-          <a:ext cx="5038950" cy="14967"/>
+          <a:off x="10688186" y="5297353"/>
+          <a:ext cx="4998128" cy="14967"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3248,7 +3308,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>442007</xdr:colOff>
+      <xdr:colOff>482829</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>168820</xdr:rowOff>
     </xdr:from>
@@ -3274,8 +3334,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="10647364" y="5312320"/>
-          <a:ext cx="2980190" cy="1215119"/>
+          <a:off x="10688186" y="5312320"/>
+          <a:ext cx="2939368" cy="1215119"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3376,7 +3436,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>227807</xdr:colOff>
+      <xdr:colOff>268629</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>43543</xdr:rowOff>
     </xdr:to>
@@ -3397,7 +3457,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7800182" y="3953057"/>
-          <a:ext cx="1952625" cy="989057"/>
+          <a:ext cx="1993447" cy="989057"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3823,7 +3883,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>442007</xdr:colOff>
+      <xdr:colOff>482829</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>168820</xdr:rowOff>
     </xdr:from>
@@ -3849,8 +3909,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="10647364" y="5312320"/>
-          <a:ext cx="7069137" cy="722541"/>
+          <a:off x="10688186" y="5312320"/>
+          <a:ext cx="7028315" cy="722541"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4006,7 +4066,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>442007</xdr:colOff>
+      <xdr:colOff>482829</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>168820</xdr:rowOff>
     </xdr:from>
@@ -4032,8 +4092,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10647364" y="5312320"/>
-          <a:ext cx="9140142" cy="1718583"/>
+          <a:off x="10688186" y="5312320"/>
+          <a:ext cx="9099320" cy="1718583"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4066,7 +4126,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>442007</xdr:colOff>
+      <xdr:colOff>482829</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>168820</xdr:rowOff>
     </xdr:from>
@@ -4092,8 +4152,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="10647364" y="5312320"/>
-          <a:ext cx="9140142" cy="1718583"/>
+          <a:off x="10688186" y="5312320"/>
+          <a:ext cx="9099320" cy="1718583"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4188,16 +4248,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>46264</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>474664</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>15151</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>32658</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>50347</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>461057</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>55972</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4212,7 +4272,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17055193" y="7602311"/>
+          <a:off x="16361229" y="7398204"/>
           <a:ext cx="1789114" cy="740411"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4252,12 +4312,12 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>459696</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>134803</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>46264</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>175624</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>32658</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>152491</xdr:rowOff>
     </xdr:to>
@@ -4277,8 +4337,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="12706125" y="7972517"/>
-          <a:ext cx="4349068" cy="752474"/>
+          <a:off x="12706125" y="7768410"/>
+          <a:ext cx="3655104" cy="956581"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4310,16 +4370,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>246857</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>28757</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>260464</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>28757</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>260464</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>50347</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4337,8 +4397,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="17949750" y="3947614"/>
-          <a:ext cx="0" cy="3654697"/>
+          <a:off x="17255786" y="3947614"/>
+          <a:ext cx="693964" cy="3450590"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4742,10 +4802,10 @@
       <xdr:rowOff>185149</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>31295</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>152491</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>245496</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>27214</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4758,13 +4818,13 @@
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="120" idx="3"/>
-          <a:endCxn id="101" idx="1"/>
+          <a:endCxn id="101" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5894389" y="7288078"/>
-          <a:ext cx="5022620" cy="1436913"/>
+          <a:ext cx="5917178" cy="1066707"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4921,12 +4981,12 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>261824</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>43725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>256382</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>163377</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>42182</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>57151</xdr:rowOff>
     </xdr:to>
@@ -4941,13 +5001,13 @@
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="119" idx="0"/>
-          <a:endCxn id="50" idx="2"/>
+          <a:endCxn id="50" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="7745753" y="6901725"/>
-          <a:ext cx="2035629" cy="1482997"/>
+          <a:off x="7745753" y="6531520"/>
+          <a:ext cx="1141072" cy="1853202"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5445,6 +5505,67 @@
           </a:solidFill>
           <a:headEnd type="none"/>
           <a:tailEnd type="diamond"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>451532</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>168820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>54429</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>185149</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="57" name="直線矢印コネクタ 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44492A0B-8DF1-614F-A1BB-FEB3D17A52A9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="120" idx="3"/>
+          <a:endCxn id="38" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5894389" y="5312320"/>
+          <a:ext cx="3004683" cy="1975758"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -5877,8 +5998,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57DD9B51-692E-4039-98B6-6C0D19A95D03}">
   <dimension ref="E2:V4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="T3" sqref="T3"/>
+    <sheetView tabSelected="1" topLeftCell="B7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/Assets/仕様書.xlsx
+++ b/Assets/仕様書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alfam\Documents\Sudoku_Git\Assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5C43535-7D0E-4DA3-8CDF-5839344E4916}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07083854-63BD-4BE1-ACCC-96CE71219751}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="15000" activeTab="3" xr2:uid="{4521FB58-C6D8-458F-B2B5-CA63D47F7699}"/>
   </bookViews>
@@ -3967,7 +3967,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17746435" y="6660697"/>
+          <a:off x="19787506" y="6660697"/>
           <a:ext cx="1789114" cy="740411"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5555,6 +5555,250 @@
         <a:xfrm flipV="1">
           <a:off x="5894389" y="5312320"/>
           <a:ext cx="3004683" cy="1975758"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>234609</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>28757</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>260464</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>10888</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="直線矢印コネクタ 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AAE9A29-90A2-7891-2859-A3C6358EC4B9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="79" idx="2"/>
+          <a:endCxn id="62" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="14522109" y="3947614"/>
+          <a:ext cx="3427641" cy="471988"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>252301</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>28757</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>260464</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="直線矢印コネクタ 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF8FBCE1-7563-5A8A-6FA2-A494F37A220D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="79" idx="2"/>
+          <a:endCxn id="82" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="16580872" y="3947614"/>
+          <a:ext cx="1368878" cy="979533"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>260464</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>28757</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>241415</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>31298</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="32" name="直線矢印コネクタ 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFE96EBD-E0BA-DB10-2B6B-B79D4439216F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="79" idx="2"/>
+          <a:endCxn id="9" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17949750" y="3947614"/>
+          <a:ext cx="661308" cy="1717041"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>260464</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>28757</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>271349</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="49" name="直線矢印コネクタ 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C5BE96A-5700-7300-4E53-5DE8455088CF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="79" idx="2"/>
+          <a:endCxn id="37" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17949750" y="3947614"/>
+          <a:ext cx="2732313" cy="2713083"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5999,7 +6243,7 @@
   <dimension ref="E2:V4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+      <selection activeCell="AD18" sqref="AD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/Assets/仕様書.xlsx
+++ b/Assets/仕様書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alfam\Documents\Sudoku_Git\Assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07083854-63BD-4BE1-ACCC-96CE71219751}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06D2C6EA-CDF8-4D82-8F25-77CBA260A964}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="15000" activeTab="3" xr2:uid="{4521FB58-C6D8-458F-B2B5-CA63D47F7699}"/>
   </bookViews>
@@ -1539,70 +1539,8 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>102054</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>530453</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>34200</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="正方形/長方形 16">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C89E4423-9EC0-E9E5-62E5-2382F7A78A4D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6905625" y="3212646"/>
-          <a:ext cx="1789114" cy="740411"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="lt1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>IMainGameLogic</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>316253</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>269988</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>53250</xdr:rowOff>
     </xdr:from>
@@ -1622,14 +1560,14 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="17" idx="0"/>
+          <a:stCxn id="21" idx="0"/>
           <a:endCxn id="2" idx="2"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="7800182" y="2257607"/>
-          <a:ext cx="2024743" cy="955039"/>
+          <a:off x="5032488" y="2257607"/>
+          <a:ext cx="4792437" cy="955039"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1783,66 +1721,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>484188</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>153852</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>102054</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>153852</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="25" name="直線矢印コネクタ 24">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D445B98C-57E6-C596-FC6B-71F9BA9D6638}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="21" idx="3"/>
-          <a:endCxn id="17" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5927045" y="3582852"/>
-          <a:ext cx="978580" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:srgbClr val="92D050"/>
-          </a:solidFill>
-          <a:headEnd type="none"/>
-          <a:tailEnd type="oval"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>148317</xdr:colOff>
       <xdr:row>20</xdr:row>
@@ -2027,16 +1905,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>35377</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>504600</xdr:colOff>
+      <xdr:rowOff>14968</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>463778</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>34200</xdr:rowOff>
+      <xdr:rowOff>20593</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2051,8 +1929,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8991600" y="3124200"/>
-          <a:ext cx="1800000" cy="720000"/>
+          <a:off x="7519306" y="3199039"/>
+          <a:ext cx="1789115" cy="740411"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2089,14 +1967,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>530453</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>484188</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>153852</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
+      <xdr:rowOff>140245</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>35377</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>153852</xdr:rowOff>
     </xdr:to>
@@ -2110,14 +1988,15 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="17" idx="3"/>
+          <a:cxnSpLocks/>
+          <a:stCxn id="21" idx="3"/>
           <a:endCxn id="34" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8694739" y="3582852"/>
-          <a:ext cx="2267175" cy="0"/>
+        <a:xfrm flipV="1">
+          <a:off x="5927045" y="3569245"/>
+          <a:ext cx="1592261" cy="13607"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3368,10 +3247,10 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>290401</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>249578</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>34200</xdr:rowOff>
+      <xdr:rowOff>20593</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
@@ -3395,69 +3274,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="11856472" y="3953057"/>
-          <a:ext cx="2665637" cy="466545"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:srgbClr val="FFC000"/>
-          </a:solidFill>
-          <a:prstDash val="dash"/>
-          <a:headEnd type="none"/>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>316253</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>34200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>268629</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>43543</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="117" name="直線矢印コネクタ 116">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90E0C06E-45DC-D83D-49E9-18A9DD282C32}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="17" idx="2"/>
-          <a:endCxn id="38" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7800182" y="3953057"/>
-          <a:ext cx="1993447" cy="989057"/>
+          <a:off x="8413864" y="3939450"/>
+          <a:ext cx="6108245" cy="480152"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5008,67 +4826,6 @@
         <a:xfrm flipV="1">
           <a:off x="7745753" y="6531520"/>
           <a:ext cx="1141072" cy="1853202"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:srgbClr val="FFC000"/>
-          </a:solidFill>
-          <a:prstDash val="dash"/>
-          <a:headEnd type="none"/>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>261824</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>34200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>316253</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>57151</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="156" name="直線矢印コネクタ 155">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E223615B-F1D4-2D3E-2CC7-9365A1603324}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="17" idx="2"/>
-          <a:endCxn id="119" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="7745753" y="3953057"/>
-          <a:ext cx="54429" cy="4431665"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>

--- a/Assets/仕様書.xlsx
+++ b/Assets/仕様書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alfam\Documents\Sudoku_Git\Assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06D2C6EA-CDF8-4D82-8F25-77CBA260A964}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F76DB952-B063-4CE1-97DD-C59423E04C5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="15000" activeTab="3" xr2:uid="{4521FB58-C6D8-458F-B2B5-CA63D47F7699}"/>
   </bookViews>
